--- a/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_08.08.24_output.xlsx
+++ b/docs/PTA3_ADDC_30_2/PTA3_ADDC_30_2_08.08.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,55 +437,65 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>percent</t>
         </is>
@@ -495,95 +505,107 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731700168.8598552</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731700169.293876</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700168.8598552.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700169.293876.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I3" t="n">
+      <c r="K3" t="n">
         <v>2949</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>2940.95</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>8.050000000000182</v>
       </c>
-      <c r="L3" t="n">
+      <c r="N3" t="n">
         <v>0.27</v>
       </c>
     </row>
@@ -591,51 +613,57 @@
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731700170.5309362</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731700171.3936424</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700170.5309362.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700171.3936424.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I4" t="n">
+      <c r="K4" t="n">
         <v>2948</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>2948.55</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.5500000000001819</v>
       </c>
-      <c r="L4" t="n">
+      <c r="N4" t="n">
         <v>-0.02</v>
       </c>
     </row>
@@ -643,51 +671,57 @@
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731700171.5314589</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>1731700172.5315323</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700171.5314589.png</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>./test_images/MXI1731700172.5315323.png</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
+      <c r="J5" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I5" t="n">
+      <c r="K5" t="n">
         <v>2944.65</v>
       </c>
-      <c r="J5" t="n">
+      <c r="L5" t="n">
         <v>2939.7</v>
       </c>
-      <c r="K5" t="n">
+      <c r="M5" t="n">
         <v>-4.950000000000273</v>
       </c>
-      <c r="L5" t="n">
+      <c r="N5" t="n">
         <v>-0.17</v>
       </c>
     </row>
@@ -695,95 +729,107 @@
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>MXI</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731700172.7876859</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>./test_images/MXI1731700172.7876859.png</t>
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
+          <t>./test_images/MXI1731700172.7876859.png</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I6" t="n">
+      <c r="K6" t="n">
         <v>2943</v>
       </c>
-      <c r="J6" t="n">
-        <v>2943</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>2941.35</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1.650000000000091</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731700172.9301505</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731700173.2218385</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700172.9301505.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700173.2218385.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I7" t="n">
+      <c r="K7" t="n">
         <v>11.87</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>11.881</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.01100000000000101</v>
       </c>
-      <c r="L7" t="n">
+      <c r="N7" t="n">
         <v>0.09</v>
       </c>
     </row>
@@ -791,51 +837,57 @@
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731700173.7139711</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731700175.375788</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700173.7139711.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700175.375788.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I8" t="n">
+      <c r="K8" t="n">
         <v>11.908</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>11.936</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-0.02800000000000047</v>
       </c>
-      <c r="L8" t="n">
+      <c r="N8" t="n">
         <v>-0.24</v>
       </c>
     </row>
@@ -843,51 +895,57 @@
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731700175.55359</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731700175.9708235</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700175.55359.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700175.9708235.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I9" t="n">
+      <c r="K9" t="n">
         <v>11.934</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>11.938</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.004000000000001336</v>
       </c>
-      <c r="L9" t="n">
+      <c r="N9" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -895,51 +953,57 @@
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731700176.182739</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731700177.1724231</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700176.182739.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700177.1724231.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I10" t="n">
+      <c r="K10" t="n">
         <v>11.964</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>11.971</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.006999999999999673</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>-0.06</v>
       </c>
     </row>
@@ -947,51 +1011,57 @@
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731700177.2754495</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1731700178.1245418</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700177.2754495.png</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700178.1245418.png</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I11" t="n">
+      <c r="K11" t="n">
         <v>11.962</v>
       </c>
-      <c r="J11" t="n">
+      <c r="L11" t="n">
         <v>11.951</v>
       </c>
-      <c r="K11" t="n">
+      <c r="M11" t="n">
         <v>-0.01099999999999923</v>
       </c>
-      <c r="L11" t="n">
+      <c r="N11" t="n">
         <v>-0.09</v>
       </c>
     </row>
@@ -999,51 +1069,57 @@
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731700178.5235825</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731700178.688228</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700178.5235825.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700178.688228.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I12" t="n">
+      <c r="K12" t="n">
         <v>11.945</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>11.949</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.003999999999999559</v>
       </c>
-      <c r="L12" t="n">
+      <c r="N12" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -1051,51 +1127,57 @@
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731700178.7378953</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731700179.1125019</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700178.7378953.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700179.1125019.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I13" t="n">
+      <c r="K13" t="n">
         <v>11.95</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>11.948</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.001999999999998892</v>
       </c>
-      <c r="L13" t="n">
+      <c r="N13" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1103,51 +1185,57 @@
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731700179.127435</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731700179.6503794</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700179.127435.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700179.6503794.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I14" t="n">
+      <c r="K14" t="n">
         <v>11.948</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>11.948</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>0</v>
       </c>
-      <c r="L14" t="n">
+      <c r="N14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1155,51 +1243,57 @@
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731700179.780551</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731700179.910979</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700179.780551.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700179.910979.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I15" t="n">
+      <c r="K15" t="n">
         <v>11.942</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>11.947</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>0.004999999999999005</v>
       </c>
-      <c r="L15" t="n">
+      <c r="N15" t="n">
         <v>0.04</v>
       </c>
     </row>
@@ -1207,51 +1301,57 @@
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731700180.603756</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731700180.6767764</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700180.603756.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700180.6767764.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I16" t="n">
+      <c r="K16" t="n">
         <v>11.945</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>11.943</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>0.002000000000000668</v>
       </c>
-      <c r="L16" t="n">
+      <c r="N16" t="n">
         <v>0.02</v>
       </c>
     </row>
@@ -1259,51 +1359,57 @@
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731700181.3771799</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731700182.671673</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700181.3771799.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700182.671673.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I17" t="n">
+      <c r="K17" t="n">
         <v>11.928</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>11.955</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.02699999999999925</v>
       </c>
-      <c r="L17" t="n">
+      <c r="N17" t="n">
         <v>0.23</v>
       </c>
     </row>
@@ -1311,51 +1417,57 @@
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731700182.685634</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731700183.5662732</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700182.685634.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/CNY1731700183.5662732.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I18" t="n">
+      <c r="K18" t="n">
         <v>11.955</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>11.945</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>0.009999999999999787</v>
       </c>
-      <c r="L18" t="n">
+      <c r="N18" t="n">
         <v>0.08</v>
       </c>
     </row>
@@ -1363,44 +1475,50 @@
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731700184.3710244</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731700184.3710244.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731700184.3710244.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>VisualTraider_v3</t>
         </is>
       </c>
-      <c r="I19" t="n">
+      <c r="K19" t="n">
         <v>11.966</v>
       </c>
-      <c r="J19" t="n">
-        <v>11.966</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
-      </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>11.969</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.003000000000000114</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.03</v>
       </c>
     </row>
   </sheetData>
@@ -1461,16 +1579,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.01900000000000013</v>
+        <v>0.01600000000000001</v>
       </c>
       <c r="C2" t="n">
         <v>13</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001461538461538471</v>
+        <v>0.001230769230769232</v>
       </c>
       <c r="E2" t="n">
-        <v>0.15</v>
+        <v>0.12</v>
       </c>
       <c r="F2" t="n">
         <v>0.01</v>
@@ -1483,19 +1601,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2.549999999999727</v>
+        <v>4.199999999999818</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.6374999999999318</v>
+        <v>1.049999999999955</v>
       </c>
       <c r="E3" t="n">
-        <v>0.08000000000000004</v>
+        <v>0.14</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="4">
